--- a/biology/Botanique/Androsace_jacquemontii/Androsace_jacquemontii.xlsx
+++ b/biology/Botanique/Androsace_jacquemontii/Androsace_jacquemontii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Androsace de Jacquemont (Androsace jacquemontii, syn. A. villosa var. jacquemontii) est une espèce de plantes à fleurs de la famille des primulacées originaire du Népal. Elle est haute de 4 à 7 cm et se rencontre vers 3 500 à 4 500 m, sur pelouse et zone pierreuse. La fleur est violet plus ou moins foncé à clair.
-Elle est référencée comme espèce par le Catalogue of Life de l’ITIS[4].
+Elle est référencée comme espèce par le Catalogue of Life de l’ITIS.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (29 juillet 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (29 juillet 2020) :
 variété Androsace jacquemontii var. jacquemontii
 variété Androsace jacquemontii var. villosissima (R.Knuth) Govaerts
-Selon The Plant List            (29 juillet 2020)[3] :
+Selon The Plant List            (29 juillet 2020) :
 variété Androsace jacquemontii var. robusta (R.Knuth) Govaerts
 variété Androsace jacquemontii var. villosissima (R.Knuth) Govaerts
-Selon Tropicos                                           (29 juillet 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 juillet 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Androsace jacquemontii var. jacquemontii
 variété Androsace jacquemontii var. robusta (R. Knuth) Govaerts
 variété Androsace jacquemontii var. villosissima Govaerts</t>
